--- a/Desktop/MYSARAH/MIKROPIPET TEMPLATE 2024 BIRU- UPM034A & UPM034B dan ACV 5000.xlsx
+++ b/Desktop/MYSARAH/MIKROPIPET TEMPLATE 2024 BIRU- UPM034A & UPM034B dan ACV 5000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\MYSARAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD8007-555F-4C52-BF81-246ECB1AC8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65584481-6DB4-4973-A01F-F2E709BF1562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,12 +942,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,23 +959,57 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,58 +1020,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,8 +1309,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1333,11 +1333,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="71" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="76" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="50"/>
@@ -1346,8 +1346,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1365,11 +1365,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="76" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="50"/>
@@ -1397,11 +1397,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="69">
+      <c r="D3" s="53"/>
+      <c r="E3" s="78">
         <v>1000</v>
       </c>
       <c r="F3" s="50"/>
@@ -1433,12 +1433,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1467,11 +1467,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="64">
+      <c r="D5" s="53"/>
+      <c r="E5" s="80">
         <v>22.4</v>
       </c>
       <c r="F5" s="50"/>
@@ -1499,11 +1499,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64">
+      <c r="D6" s="68"/>
+      <c r="E6" s="80">
         <v>64</v>
       </c>
       <c r="F6" s="50"/>
@@ -1535,12 +1535,12 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="82">
         <v>23.313700000000001</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1567,11 +1567,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="50"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1599,11 +1599,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="50"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1631,12 +1631,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="85">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0036</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="50"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1660,12 +1660,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1691,10 +1691,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="50"/>
       <c r="E12" s="8">
         <v>1000</v>
@@ -1726,7 +1726,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="50"/>
@@ -1760,10 +1760,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="86">
         <v>1003.57</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>1007.1828520000001</v>
@@ -1795,10 +1795,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="86">
         <v>1001.34</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>1004.944824</v>
@@ -1830,10 +1830,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="86">
         <v>1001.45</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>1005.0552200000001</v>
@@ -1865,10 +1865,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="86">
         <v>1000.87</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>1004.4731320000001</v>
@@ -1900,10 +1900,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="86">
         <v>1003.1</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>1006.7111600000001</v>
@@ -1935,10 +1935,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="86">
         <v>1001.97</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>1005.5770920000001</v>
@@ -1970,10 +1970,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="86">
         <v>1003.54</v>
       </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>1007.152744</v>
@@ -2005,10 +2005,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="86">
         <v>1003.3</v>
       </c>
-      <c r="D21" s="58"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>1006.91188</v>
@@ -2040,10 +2040,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="86">
         <v>1002.08</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>1005.6874880000001</v>
@@ -2075,10 +2075,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="86">
         <v>1000.58</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>1004.1820880000001</v>
@@ -2110,7 +2110,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="56">
         <f>AVERAGE(C14:D23)</f>
         <v>1002.1800000000001</v>
       </c>
@@ -2201,10 +2201,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="50"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2234,7 +2234,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="56">
         <f>E24</f>
         <v>1005.7878479999999</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="56">
         <f>STDEV(E14:E23)</f>
         <v>1.1320481461861536</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="57">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.57878479999999399</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="57">
         <f>ABS((100*C29/C28))</f>
         <v>0.11255337280493308</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="59">
         <v>0.8</v>
       </c>
       <c r="D32" s="50"/>
@@ -2398,7 +2398,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="60">
         <v>0.3</v>
       </c>
       <c r="D33" s="50"/>
@@ -2430,7 +2430,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="53" t="str">
+      <c r="C34" s="54" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -2490,10 +2490,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="50"/>
       <c r="E36" s="21"/>
       <c r="F36" s="2"/>
@@ -2523,7 +2523,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="50"/>
@@ -2887,7 +2887,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="86" t="e">
+      <c r="C48" s="51" t="e">
         <f>AVERAGE(C38:D47)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2919,12 +2919,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2950,10 +2950,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="50"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2983,7 +2983,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="56">
         <f>E48</f>
         <v>0</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="54">
         <f>STDEV(E38:E47)</f>
         <v>0</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56" t="e">
+      <c r="C53" s="57" t="e">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="87" t="e">
+      <c r="C54" s="58" t="e">
         <f>ABS((100*C52/C51))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="59">
         <v>1.6</v>
       </c>
       <c r="D55" s="50"/>
@@ -3147,7 +3147,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="60">
         <v>0.6</v>
       </c>
       <c r="D56" s="50"/>
@@ -3179,7 +3179,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="e">
+      <c r="C57" s="54" t="e">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>#DIV/0!</v>
       </c>
@@ -3239,10 +3239,10 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="50"/>
       <c r="E59" s="8"/>
       <c r="F59" s="27"/>
@@ -3272,7 +3272,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="50"/>
@@ -3636,8 +3636,9 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="86">
-        <v>507</v>
+      <c r="C71" s="51" t="e">
+        <f>AVERAGE(C61:D70)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D71" s="50"/>
       <c r="E71" s="24">
@@ -3698,10 +3699,10 @@
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="50"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3731,7 +3732,7 @@
       <c r="B74" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74" s="56">
         <f>E71</f>
         <v>0</v>
       </c>
@@ -3764,7 +3765,7 @@
       <c r="B75" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="56">
         <f>STDEV(E61:E70)</f>
         <v>0</v>
       </c>
@@ -3797,7 +3798,7 @@
       <c r="B76" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="56" t="e">
+      <c r="C76" s="57" t="e">
         <f>ABS((100*(C74-E59)/E59))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3830,7 +3831,7 @@
       <c r="B77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="56" t="e">
+      <c r="C77" s="57" t="e">
         <f>ABS((100*C75/C74))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3863,7 +3864,7 @@
       <c r="B78" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="59">
         <v>8</v>
       </c>
       <c r="D78" s="50"/>
@@ -3895,7 +3896,7 @@
       <c r="B79" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="60">
         <v>3</v>
       </c>
       <c r="D79" s="50"/>
@@ -3927,7 +3928,7 @@
       <c r="B80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="53" t="e">
+      <c r="C80" s="54" t="e">
         <f>IF(AND(C77&lt;=C79,C76&lt;=C78),"PASS","FAIL")</f>
         <v>#DIV/0!</v>
       </c>
@@ -3987,15 +3988,15 @@
       <c r="A82" s="10">
         <v>8</v>
       </c>
-      <c r="B82" s="85" t="s">
+      <c r="B82" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="79" t="s">
+      <c r="C82" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="74"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="64"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4019,11 +4020,11 @@
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" s="83"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="76"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4047,11 +4048,11 @@
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="78"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="69"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4102,15 +4103,15 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="54"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="50"/>
       <c r="D86" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="81" t="s">
+      <c r="E86" s="61" t="s">
         <v>48</v>
       </c>
       <c r="F86" s="50"/>
@@ -4136,18 +4137,18 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="73" t="s">
+      <c r="A87" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="80"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="82" t="s">
+      <c r="B87" s="63"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="73" t="s">
+      <c r="E87" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="74"/>
+      <c r="F87" s="64"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4170,12 +4171,12 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="75"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="76"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="66"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4198,12 +4199,12 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="75"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="76"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="66"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4226,12 +4227,12 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="75"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="76"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="66"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4254,12 +4255,12 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="75"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="76"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="66"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4282,12 +4283,12 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="75"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="76"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="66"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4310,12 +4311,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="76"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4338,12 +4339,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="75"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="76"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="66"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -4366,12 +4367,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="78"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="69"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -29735,85 +29736,6 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C95"/>
-    <mergeCell ref="D87:D95"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E87:F95"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:F84"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
@@ -29823,6 +29745,85 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E87:F95"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:F84"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C95"/>
+    <mergeCell ref="D87:D95"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29863,11 +29864,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="71" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="76" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="50"/>
@@ -29876,8 +29877,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -29895,11 +29896,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="76" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="50"/>
@@ -29927,11 +29928,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="69">
+      <c r="D3" s="53"/>
+      <c r="E3" s="78">
         <v>5000</v>
       </c>
       <c r="F3" s="50"/>
@@ -29963,12 +29964,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -29997,11 +29998,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="64">
+      <c r="D5" s="53"/>
+      <c r="E5" s="80">
         <v>21.3</v>
       </c>
       <c r="F5" s="50"/>
@@ -30029,11 +30030,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64">
+      <c r="D6" s="68"/>
+      <c r="E6" s="80">
         <v>61.9</v>
       </c>
       <c r="F6" s="50"/>
@@ -30065,11 +30066,11 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="60">
         <v>22.209499999999998</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="50"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -30097,11 +30098,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="50"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -30129,11 +30130,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="50"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -30161,12 +30162,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="85">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0033000000000001</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="50"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -30190,12 +30191,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -30221,10 +30222,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="50"/>
       <c r="E12" s="31">
         <v>5000</v>
@@ -30256,7 +30257,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="50"/>
@@ -30290,10 +30291,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="90">
         <v>5009.7</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5026.2320100000006</v>
@@ -30325,10 +30326,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="90">
         <v>5003.3</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5019.8108900000007</v>
@@ -30360,10 +30361,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="90">
         <v>5003.8</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5020.3125400000008</v>
@@ -30395,10 +30396,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="90">
         <v>5001.8</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5018.3059400000002</v>
@@ -30430,10 +30431,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C18" s="90">
         <v>5003.8999999999996</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.4128700000001</v>
@@ -30467,10 +30468,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="90">
         <v>5000.5</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5017.0016500000002</v>
@@ -30502,10 +30503,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C20" s="90">
         <v>5005.3</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5021.8174900000004</v>
@@ -30537,10 +30538,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C21" s="90">
         <v>5004.6000000000004</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5021.1151800000007</v>
@@ -30572,10 +30573,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="88">
+      <c r="C22" s="90">
         <v>5009.3999999999996</v>
       </c>
-      <c r="D22" s="89"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5025.93102</v>
@@ -30607,10 +30608,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="90">
         <v>5007.8</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="91"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5024.3257400000002</v>
@@ -30642,7 +30643,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="56">
         <f>AVERAGE(C14:D23)</f>
         <v>5005.01</v>
       </c>
@@ -30733,10 +30734,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="50"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -30766,7 +30767,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="56">
         <f>E24</f>
         <v>5021.5265330000011</v>
       </c>
@@ -30799,7 +30800,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="56">
         <f>STDEV(E14:E23)</f>
         <v>3.0936258347053909</v>
       </c>
@@ -30832,7 +30833,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="57">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.43053066000002216</v>
       </c>
@@ -30865,7 +30866,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="57">
         <f>ABS((100*C29/C28))</f>
         <v>6.1607278471496434E-2</v>
       </c>
@@ -30898,7 +30899,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="59">
         <v>0.8</v>
       </c>
       <c r="D32" s="50"/>
@@ -30930,7 +30931,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="60">
         <v>0.3</v>
       </c>
       <c r="D33" s="50"/>
@@ -30962,7 +30963,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="53" t="str">
+      <c r="C34" s="54" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31022,10 +31023,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="50"/>
       <c r="E36" s="32">
         <v>2500</v>
@@ -31057,7 +31058,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="50"/>
@@ -31441,7 +31442,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="86">
+      <c r="C48" s="51">
         <f>AVERAGE(C38:D47)</f>
         <v>2505.59</v>
       </c>
@@ -31473,12 +31474,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -31504,10 +31505,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="50"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -31537,7 +31538,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="56">
         <f>E48</f>
         <v>2513.8584470000001</v>
       </c>
@@ -31570,7 +31571,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="54">
         <f>STDEV(E38:E47)</f>
         <v>2.8910402817980909</v>
       </c>
@@ -31603,7 +31604,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="57">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.55433788000000273</v>
       </c>
@@ -31636,7 +31637,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="58">
         <f>ABS((100*C52/C51))</f>
         <v>0.1150040999821694</v>
       </c>
@@ -31669,7 +31670,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="59">
         <v>1.6</v>
       </c>
       <c r="D55" s="50"/>
@@ -31701,7 +31702,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="60">
         <v>0.6</v>
       </c>
       <c r="D56" s="50"/>
@@ -31733,7 +31734,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="str">
+      <c r="C57" s="54" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31793,12 +31794,12 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="50"/>
-      <c r="E59" s="91">
+      <c r="E59" s="88">
         <v>500</v>
       </c>
       <c r="F59" s="50"/>
@@ -31828,7 +31829,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="50"/>
@@ -32244,7 +32245,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="86">
+      <c r="C71" s="51">
         <f>AVERAGE(C61:D70)</f>
         <v>506.392</v>
       </c>
@@ -32310,10 +32311,10 @@
       <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="50"/>
       <c r="E73" s="7"/>
       <c r="F73" s="3"/>
@@ -32343,7 +32344,7 @@
       <c r="B74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="90"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="50"/>
       <c r="E74" s="7"/>
       <c r="F74" s="3"/>
@@ -32373,7 +32374,7 @@
       <c r="B75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="57"/>
+      <c r="C75" s="86"/>
       <c r="D75" s="50"/>
       <c r="E75" s="7"/>
       <c r="F75" s="3"/>
@@ -32403,7 +32404,7 @@
       <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="56">
         <f>C75*C10</f>
         <v>0</v>
       </c>
@@ -32436,7 +32437,7 @@
       <c r="B77" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="56">
         <f>ABS(E70-C76)/10</f>
         <v>50.938544300000004</v>
       </c>
@@ -32468,10 +32469,10 @@
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="54"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="50"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -32501,7 +32502,7 @@
       <c r="B79" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="56">
         <f>F71</f>
         <v>559.00163790000011</v>
       </c>
@@ -32534,7 +32535,7 @@
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="56">
         <f>STDEV(F61:F70)</f>
         <v>1.6198163793828375</v>
       </c>
@@ -32567,7 +32568,7 @@
       <c r="B81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="56">
+      <c r="C81" s="57">
         <f>ABS((100*(C79-E59)/E59))</f>
         <v>11.800327580000021</v>
       </c>
@@ -32600,7 +32601,7 @@
       <c r="B82" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="56">
+      <c r="C82" s="57">
         <f>ABS((100*C80/C79))</f>
         <v>0.28976952294236508</v>
       </c>
@@ -32633,7 +32634,7 @@
       <c r="B83" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="51">
+      <c r="C83" s="59">
         <v>8</v>
       </c>
       <c r="D83" s="50"/>
@@ -32665,7 +32666,7 @@
       <c r="B84" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="52">
+      <c r="C84" s="60">
         <v>3</v>
       </c>
       <c r="D84" s="50"/>
@@ -32697,7 +32698,7 @@
       <c r="B85" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="53" t="str">
+      <c r="C85" s="54" t="str">
         <f>IF(AND(C82&lt;=C84,C81&lt;=C83),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
@@ -32757,15 +32758,15 @@
       <c r="A87" s="10">
         <v>8</v>
       </c>
-      <c r="B87" s="85" t="s">
+      <c r="B87" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="74"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="64"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -32789,11 +32790,11 @@
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="76"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="66"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -32817,11 +32818,11 @@
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="78"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="69"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -32872,15 +32873,15 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="50"/>
       <c r="D91" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="81" t="s">
+      <c r="E91" s="61" t="s">
         <v>48</v>
       </c>
       <c r="F91" s="50"/>
@@ -32906,18 +32907,18 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="73" t="s">
+      <c r="A92" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="80"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="82" t="s">
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="73" t="s">
+      <c r="E92" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F92" s="74"/>
+      <c r="F92" s="64"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -32940,12 +32941,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="76"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -32968,12 +32969,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="75"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="76"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="66"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -32996,12 +32997,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="75"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="76"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="66"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -33024,12 +33025,12 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="75"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="76"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="66"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -33052,12 +33053,12 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="75"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="76"/>
+      <c r="A97" s="65"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="66"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -33080,12 +33081,12 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="75"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="76"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="66"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -33108,12 +33109,12 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="76"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="66"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -33136,12 +33137,12 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="78"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="69"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -58365,41 +58366,55 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A92:C100"/>
     <mergeCell ref="D92:D100"/>
     <mergeCell ref="E92:F100"/>
@@ -58410,55 +58425,41 @@
     <mergeCell ref="C87:F89"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59762,7 +59763,7 @@
       <c r="B16" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="43"/>
       <c r="E16" s="44" t="s">
         <v>69</v>
@@ -59777,7 +59778,7 @@
       <c r="B18" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="43"/>
       <c r="E18" s="44" t="s">
         <v>69</v>
@@ -59792,7 +59793,7 @@
       <c r="B20" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="46"/>
       <c r="E20" s="41" t="s">
         <v>72</v>
@@ -59802,14 +59803,14 @@
       <c r="B21" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="53"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="61"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="47" t="e">
         <f>D16/D18*D20</f>
         <v>#DIV/0!</v>
@@ -59822,13 +59823,13 @@
       <c r="B24" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="53"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
